--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah mang\KULIAH SMT 3 TK2\basdat\bimbel-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\bimbel-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA84780E-11C2-45E7-845F-17F4C84EC1D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8B490774-55A4-4DAD-9131-5796C016B99D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="19-Rabu" sheetId="2" r:id="rId1"/>
     <sheet name="20-Kamis" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Tugas</t>
   </si>
@@ -47,12 +46,6 @@
     <t>Konsep awal login</t>
   </si>
   <si>
-    <t>Halaman siswa</t>
-  </si>
-  <si>
-    <t>Halaman pengajar</t>
-  </si>
-  <si>
     <t>Konsep desain (font dkk)</t>
   </si>
   <si>
@@ -78,12 +71,27 @@
   </si>
   <si>
     <t>sunu</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Parent form (form menu)</t>
+  </si>
+  <si>
+    <t>Code untuk konek ke masing-masing form</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>form pegawai, pembayaran, dan kelas belum ada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,9 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,21 +448,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173509D-1339-4FE4-8486-4CEEA6F2ED39}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -459,76 +470,92 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1A7B59-79DA-418D-A509-F6D1ADA0E761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -536,26 +563,26 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -564,12 +591,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCBDB8D-EDA5-4204-BD7B-25862A5AB4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="19-Rabu" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Tugas</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>form pegawai, pembayaran, dan kelas belum ada</t>
+  </si>
+  <si>
+    <t>konek ke database &amp; nampilin database</t>
+  </si>
+  <si>
+    <t>insert data</t>
+  </si>
+  <si>
+    <t>update data</t>
+  </si>
+  <si>
+    <t>hapus data</t>
   </si>
 </sst>
 </file>
@@ -451,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,18 +583,22 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Tugas</t>
   </si>
@@ -98,6 +98,27 @@
   </si>
   <si>
     <t>hapus data</t>
+  </si>
+  <si>
+    <t>edit data gridview</t>
+  </si>
+  <si>
+    <t>intan, zia</t>
+  </si>
+  <si>
+    <t>ria</t>
+  </si>
+  <si>
+    <t>dina</t>
+  </si>
+  <si>
+    <t>buat code untuk button refresh</t>
+  </si>
+  <si>
+    <t>nambahin kolom manual, tampilannya</t>
+  </si>
+  <si>
+    <t>buat code di data access dan di formnya</t>
   </si>
 </sst>
 </file>
@@ -145,7 +166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,7 +485,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +510,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -554,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,23 +609,62 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Tugas</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>buat code di data access dan di formnya</t>
+  </si>
+  <si>
+    <t>icha</t>
   </si>
 </sst>
 </file>
@@ -484,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Tugas</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>icha</t>
+  </si>
+  <si>
+    <t>buat code untuk button simpan</t>
+  </si>
+  <si>
+    <t>di masing2 form input</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -165,9 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +544,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -543,7 +555,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,6 +621,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -620,7 +635,7 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
@@ -631,7 +646,7 @@
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
       <c r="D4" t="s">
         <v>23</v>
       </c>
@@ -640,33 +655,43 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3"/>
       <c r="D5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -1,95 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah mang\KULIAH SMT 3 TK2\basdat\bimbel-project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA84780E-11C2-45E7-845F-17F4C84EC1D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8B490774-55A4-4DAD-9131-5796C016B99D}"/>
+    <workbookView windowWidth="19815" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="19-Rabu" sheetId="2" r:id="rId1"/>
     <sheet name="20-Kamis" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Tugas</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Rincian</t>
+  </si>
+  <si>
+    <t>PJ</t>
   </si>
   <si>
     <t>Konsep awal login</t>
   </si>
   <si>
+    <t>zia</t>
+  </si>
+  <si>
+    <t>Konek form login ke form adiak</t>
+  </si>
+  <si>
+    <t>sunu</t>
+  </si>
+  <si>
     <t>Halaman siswa</t>
   </si>
   <si>
+    <t>intan</t>
+  </si>
+  <si>
     <t>Halaman pengajar</t>
   </si>
   <si>
     <t>Konsep desain (font dkk)</t>
   </si>
   <si>
-    <t>Rincian</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>zia</t>
-  </si>
-  <si>
-    <t>intan</t>
-  </si>
-  <si>
     <t>font, warna button hover, background color, ukuran font (judul, masing-masing item, dkk)</t>
   </si>
   <si>
     <t>Dina, Ria</t>
-  </si>
-  <si>
-    <t>Konek form login ke form adiak</t>
-  </si>
-  <si>
-    <t>sunu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,19 +83,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,25 +433,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -184,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -217,26 +822,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -269,23 +857,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,150 +998,152 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0173509D-1339-4FE4-8486-4CEEA6F2ED39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="12.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1A7B59-79DA-418D-A509-F6D1ADA0E761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="34.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="40.2190476190476" customWidth="1"/>
+    <col min="4" max="4" width="12.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCBDB8D-EDA5-4204-BD7B-25862A5AB4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\bimbel-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New\Bimbel new\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13130EB4-8D11-4144-8E39-F805515225D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-Rabu" sheetId="2" r:id="rId1"/>
@@ -21,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Tugas</t>
   </si>
@@ -136,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,7 +488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -592,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +624,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -698,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New\Bimbel new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13130EB4-8D11-4144-8E39-F805515225D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE54599-0EF6-432A-86FF-070ED2B462AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Tugas</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>Selain itu, eventhandler button simpan klik nya jg dijadikan argumen untuk saat ini.. (Ada di form input presensi.Designer.cs)</t>
+  </si>
+  <si>
+    <t>Note: Code untuk button simpan form input presensi masih error. Bisa dicek, sudah terdefinisi sebagai argumen untuk saat ini.. (Ada di form input presensi.cs)</t>
   </si>
 </sst>
 </file>
@@ -166,12 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,7 +543,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
@@ -547,7 +554,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -585,10 +592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +605,7 @@
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -623,56 +630,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>

--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New\Bimbel new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\bimbel-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE54599-0EF6-432A-86FF-070ED2B462AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="19-Rabu" sheetId="2" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Tugas</t>
   </si>
@@ -72,12 +71,6 @@
   </si>
   <si>
     <t>Code untuk konek ke masing-masing form</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>form pegawai, pembayaran, dan kelas belum ada</t>
   </si>
   <si>
     <t>konek ke database &amp; nampilin database</t>
@@ -134,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,12 +567,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -591,11 +579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,10 +609,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -632,65 +620,71 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -706,7 +700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Timeframe-Project.xlsx
+++ b/Timeframe-Project.xlsx
@@ -1,76 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\bimbel-project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="19-Rabu" sheetId="2" r:id="rId1"/>
     <sheet name="20-Kamis" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+  <si>
+    <t>Status</t>
+  </si>
   <si>
     <t>Tugas</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Rincian</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
   <si>
     <t>Konsep awal login</t>
   </si>
   <si>
+    <t>zia</t>
+  </si>
+  <si>
+    <t>Konek form login ke form adiak</t>
+  </si>
+  <si>
+    <t>sunu</t>
+  </si>
+  <si>
+    <t>Parent form (form menu)</t>
+  </si>
+  <si>
+    <t>intan</t>
+  </si>
+  <si>
+    <t>Code untuk konek ke masing-masing form</t>
+  </si>
+  <si>
     <t>Konsep desain (font dkk)</t>
   </si>
   <si>
-    <t>Rincian</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>zia</t>
-  </si>
-  <si>
-    <t>intan</t>
-  </si>
-  <si>
     <t>font, warna button hover, background color, ukuran font (judul, masing-masing item, dkk)</t>
   </si>
   <si>
     <t>Dina, Ria</t>
   </si>
   <si>
-    <t>Konek form login ke form adiak</t>
-  </si>
-  <si>
-    <t>sunu</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Parent form (form menu)</t>
-  </si>
-  <si>
-    <t>Code untuk konek ke masing-masing form</t>
+    <t>DONE</t>
   </si>
   <si>
     <t>konek ke database &amp; nampilin database</t>
@@ -79,61 +72,64 @@
     <t>insert data</t>
   </si>
   <si>
+    <t>buat code di data access dan di formnya</t>
+  </si>
+  <si>
+    <t>intan, zia</t>
+  </si>
+  <si>
+    <t>Note: Code untuk button simpan form input presensi masih error. Bisa dicek, sudah terdefinisi sebagai argumen untuk saat ini.. (Ada di form input presensi.cs)</t>
+  </si>
+  <si>
     <t>update data</t>
   </si>
   <si>
+    <t>ria</t>
+  </si>
+  <si>
+    <t>Selain itu, eventhandler button simpan klik nya jg dijadikan argumen untuk saat ini.. (Ada di form input presensi.Designer.cs)</t>
+  </si>
+  <si>
     <t>hapus data</t>
   </si>
   <si>
+    <t>dina</t>
+  </si>
+  <si>
+    <t>buat code untuk button simpan</t>
+  </si>
+  <si>
+    <t>di masing2 form input</t>
+  </si>
+  <si>
+    <t>icha</t>
+  </si>
+  <si>
+    <t>buat code untuk button refresh</t>
+  </si>
+  <si>
     <t>edit data gridview</t>
   </si>
   <si>
-    <t>intan, zia</t>
-  </si>
-  <si>
-    <t>ria</t>
-  </si>
-  <si>
-    <t>dina</t>
-  </si>
-  <si>
-    <t>buat code untuk button refresh</t>
-  </si>
-  <si>
     <t>nambahin kolom manual, tampilannya</t>
-  </si>
-  <si>
-    <t>buat code di data access dan di formnya</t>
-  </si>
-  <si>
-    <t>icha</t>
-  </si>
-  <si>
-    <t>buat code untuk button simpan</t>
-  </si>
-  <si>
-    <t>di masing2 form input</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>Selain itu, eventhandler button simpan klik nya jg dijadikan argumen untuk saat ini.. (Ada di form input presensi.Designer.cs)</t>
-  </si>
-  <si>
-    <t>Note: Code untuk button simpan form input presensi masih error. Bisa dicek, sudah terdefinisi sebagai argumen untuk saat ini.. (Ada di form input presensi.cs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,19 +137,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,32 +494,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,26 +884,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +919,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,95 +1060,90 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="40.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -574,120 +1151,125 @@
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="40.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -696,17 +1278,22 @@
     <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>